--- a/z liesta de documentos.xlsx
+++ b/z liesta de documentos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>anteproyecto</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>matriz de comunicacion</t>
-  </si>
-  <si>
-    <t>minuta</t>
   </si>
   <si>
     <t>bitacora de acuerdos</t>
@@ -484,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -518,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <f>COUNTIF(B1:B33,D2)</f>
+        <f>COUNTIF(B1:B32,D2)</f>
         <v>5</v>
       </c>
     </row>
@@ -536,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <f>COUNTIF(B2:B34,D3)</f>
+        <f>COUNTIF(B2:B33,D3)</f>
         <v>6</v>
       </c>
     </row>
@@ -554,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <f>COUNTIF(B3:B35,D4)</f>
+        <f>COUNTIF(B3:B34,D4)</f>
         <v>5</v>
       </c>
     </row>
@@ -572,8 +569,8 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <f>COUNTIF(B4:B36,D5)</f>
-        <v>5</v>
+        <f>COUNTIF(B4:B35,D5)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -590,13 +587,13 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <f>COUNTIF(B5:B37,D6)</f>
+        <f>COUNTIF(B5:B36,D6)</f>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -627,19 +624,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -647,7 +644,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -655,15 +652,15 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -674,20 +671,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -695,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -703,7 +700,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -711,23 +708,23 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -735,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -743,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -751,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -763,18 +760,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/z liesta de documentos.xlsx
+++ b/z liesta de documentos.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,10 +632,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -648,10 +648,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -712,10 +712,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -760,10 +760,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/z liesta de documentos.xlsx
+++ b/z liesta de documentos.xlsx
@@ -481,19 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.42578125"/>
-    <col min="2" max="1025" width="14.42578125"/>
+    <col min="2" max="2" width="14.42578125"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="1025" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,97 +503,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <f>COUNTIF(B1:B32,D2)</f>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF(B1:B32,G2)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <f>COUNTIF(B2:B33,D3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(B2:B33,G3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <f>COUNTIF(B3:B34,D4)</f>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(B3:B34,G4)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <f>COUNTIF(B4:B35,D5)</f>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIF(B4:B35,G5)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="F6">
-        <f>COUNTIF(B5:B36,D6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f>COUNTIF(B5:B36,G6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -599,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -607,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -615,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -623,7 +625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -631,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -639,15 +641,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -672,10 +674,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
